--- a/設計書確定版/STEP1/画面遷移図_STEP1.xlsx
+++ b/設計書確定版/STEP1/画面遷移図_STEP1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書確定版\STEP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -802,64 +802,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -872,10 +818,124 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,66 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3662,16 +3662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>18496</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>83229</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18495</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>18495</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>27743</xdr:rowOff>
+      <xdr:colOff>9249</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3679,9 +3679,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2218771" y="3169329"/>
-          <a:ext cx="400049" cy="458864"/>
+        <a:xfrm flipH="1">
+          <a:off x="1035728" y="2996214"/>
+          <a:ext cx="1618327" cy="425388"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3717,15 +3717,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>112154</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50603</xdr:rowOff>
+      <xdr:colOff>167639</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>170821</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>73463</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3734,8 +3734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3112529" y="3136703"/>
-          <a:ext cx="658742" cy="194310"/>
+          <a:off x="3219338" y="2547447"/>
+          <a:ext cx="669007" cy="152326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4060,16 +4060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>92476</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36990</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147962</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>40765</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>84337</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>75090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4078,13 +4078,13 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2292751" y="2780190"/>
-          <a:ext cx="748389" cy="390247"/>
+          <a:off x="1775535" y="3014709"/>
+          <a:ext cx="762075" cy="306279"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -41462"/>
-            <a:gd name="adj2" fmla="val 86088"/>
+            <a:gd name="adj1" fmla="val -29328"/>
+            <a:gd name="adj2" fmla="val 43818"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -4652,15 +4652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>98469</xdr:colOff>
+      <xdr:colOff>5994</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>101722</xdr:rowOff>
+      <xdr:rowOff>92474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>147962</xdr:colOff>
+      <xdr:colOff>55487</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>110970</xdr:rowOff>
+      <xdr:rowOff>101722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4669,8 +4669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2498769" y="2502022"/>
-          <a:ext cx="1049618" cy="180698"/>
+          <a:off x="2447353" y="1960484"/>
+          <a:ext cx="1066726" cy="147961"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4712,6 +4712,308 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175704</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27743</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="2820510" y="2145437"/>
+          <a:ext cx="1072718" cy="638082"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27743</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>86410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3079442" y="2237912"/>
+          <a:ext cx="669007" cy="152326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>メニューボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36990</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="楕円 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240437" y="3144174"/>
+          <a:ext cx="776797" cy="573349"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110971</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92477</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="878520" cy="426399"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314418" y="3199661"/>
+          <a:ext cx="878520" cy="426399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>STEP2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>kanri.php</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18496</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>20992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="628836" y="2545579"/>
+          <a:ext cx="604544" cy="598595"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4982,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AO2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4992,287 +5294,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="89" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="82" t="s">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="82" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="81">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="88">
         <v>44551</v>
       </c>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="80"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="89"/>
     </row>
     <row r="2" spans="1:73" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="70" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="70" t="s">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="68"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="51"/>
     </row>
     <row r="3" spans="1:73" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="40"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="34"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="40"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="35"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="34"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -5609,14 +5911,14 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="66" t="s">
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="65"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="47"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
@@ -5690,14 +5992,14 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="63" t="s">
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="63"/>
-      <c r="AN11" s="62"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="44"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
@@ -5769,14 +6071,14 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="60" t="s">
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="59"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="41"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
@@ -5833,14 +6135,14 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="58" t="s">
+      <c r="T13" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="56"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="38"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
@@ -6512,12 +6814,12 @@
       <c r="K22" s="2"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="55" t="s">
+      <c r="N22" s="53" t="s">
         <v>11</v>
       </c>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
-      <c r="Q22" s="53"/>
+      <c r="Q22" s="55"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="4"/>
@@ -6589,12 +6891,12 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="52" t="s">
+      <c r="N23" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="50"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -6666,10 +6968,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="47"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="61"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -6741,10 +7043,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -6816,10 +7118,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -6891,10 +7193,10 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -7059,26 +7361,26 @@
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="41"/>
-      <c r="AZ29" s="41"/>
-      <c r="BA29" s="41"/>
-      <c r="BB29" s="41"/>
-      <c r="BC29" s="41"/>
-      <c r="BD29" s="41"/>
-      <c r="BE29" s="41"/>
-      <c r="BF29" s="41"/>
-      <c r="BG29" s="41"/>
-      <c r="BH29" s="41"/>
-      <c r="BI29" s="41"/>
-      <c r="BJ29" s="41"/>
-      <c r="BK29" s="40"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="35"/>
+      <c r="AX29" s="35"/>
+      <c r="AY29" s="35"/>
+      <c r="AZ29" s="35"/>
+      <c r="BA29" s="35"/>
+      <c r="BB29" s="35"/>
+      <c r="BC29" s="35"/>
+      <c r="BD29" s="35"/>
+      <c r="BE29" s="35"/>
+      <c r="BF29" s="35"/>
+      <c r="BG29" s="35"/>
+      <c r="BH29" s="35"/>
+      <c r="BI29" s="35"/>
+      <c r="BJ29" s="35"/>
+      <c r="BK29" s="34"/>
       <c r="BL29" s="6"/>
       <c r="BM29" s="6"/>
       <c r="BN29" s="6"/>
@@ -7138,17 +7440,17 @@
       <c r="AY30" s="6"/>
       <c r="AZ30" s="6"/>
       <c r="BA30" s="6"/>
-      <c r="BB30" s="45" t="s">
+      <c r="BB30" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="44"/>
-      <c r="BH30" s="44"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="43"/>
+      <c r="BC30" s="63"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="63"/>
+      <c r="BJ30" s="64"/>
       <c r="BK30" s="13"/>
       <c r="BL30" s="6"/>
       <c r="BM30" s="6"/>
@@ -7164,27 +7466,27 @@
     <row r="31" spans="1:73" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="40"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="34"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
@@ -7215,15 +7517,15 @@
       <c r="AY31" s="6"/>
       <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="38"/>
-      <c r="BD31" s="38"/>
-      <c r="BE31" s="38"/>
-      <c r="BF31" s="38"/>
-      <c r="BG31" s="38"/>
-      <c r="BH31" s="38"/>
-      <c r="BI31" s="38"/>
-      <c r="BJ31" s="37"/>
+      <c r="BB31" s="65"/>
+      <c r="BC31" s="66"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="66"/>
+      <c r="BF31" s="66"/>
+      <c r="BG31" s="66"/>
+      <c r="BH31" s="66"/>
+      <c r="BI31" s="66"/>
+      <c r="BJ31" s="67"/>
       <c r="BK31" s="13"/>
       <c r="BL31" s="6"/>
       <c r="BM31" s="6"/>
@@ -7290,15 +7592,15 @@
       <c r="AY32" s="6"/>
       <c r="AZ32" s="6"/>
       <c r="BA32" s="6"/>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="35"/>
-      <c r="BD32" s="35"/>
-      <c r="BE32" s="35"/>
-      <c r="BF32" s="35"/>
-      <c r="BG32" s="35"/>
-      <c r="BH32" s="35"/>
-      <c r="BI32" s="35"/>
-      <c r="BJ32" s="34"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="69"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="69"/>
+      <c r="BF32" s="69"/>
+      <c r="BG32" s="69"/>
+      <c r="BH32" s="69"/>
+      <c r="BI32" s="69"/>
+      <c r="BJ32" s="70"/>
       <c r="BK32" s="13"/>
       <c r="BL32" s="6"/>
       <c r="BM32" s="6"/>
